--- a/seguimiento/ProduccionDigital/SegDigital_CS_09_02_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_09_02_CO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\CienciasSociales\seguimiento\ProduccionDigital\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glorita\Documents\GitHub\CienciasSociales\seguimiento\ProduccionDigital\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="181" windowWidth="20733" windowHeight="9537"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="20730" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="66">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Vacío</t>
+  </si>
+  <si>
+    <t>16/04/15 12:23 p.m.</t>
   </si>
 </sst>
 </file>
@@ -229,7 +232,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm\ AM/PM"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -482,6 +485,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -491,25 +497,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -798,23 +801,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H27" sqref="H27"/>
+      <selection pane="topRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.86328125" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.86328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.46484375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="1" customWidth="1"/>
     <col min="6" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.46484375" style="1" customWidth="1"/>
-    <col min="10" max="12" width="15.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.86328125" style="1"/>
+    <col min="9" max="9" width="9.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.100000000000001" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
@@ -823,7 +827,7 @@
       </c>
       <c r="C1" s="15"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="21.15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -869,64 +873,66 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="15.85" x14ac:dyDescent="0.45">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="21">
+      <c r="F4" s="24">
         <v>42103.638888888891</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="24">
         <v>42103.649305555555</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="24">
         <v>42103.651388888888</v>
       </c>
-      <c r="I4" s="24"/>
+      <c r="I4" s="24">
+        <v>42104.390277777777</v>
+      </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="24"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="15.85" x14ac:dyDescent="0.45">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="22"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M5" s="22"/>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -935,24 +941,26 @@
       <c r="E6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="25"/>
-      <c r="J6" s="13"/>
+      <c r="J6" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K6" s="13"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="22"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M6" s="22"/>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -961,24 +969,26 @@
       <c r="E7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="13"/>
+      <c r="J7" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K7" s="13"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="22"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M7" s="22"/>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8" spans="1:16" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -987,24 +997,26 @@
       <c r="E8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="22"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M8" s="22"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1013,24 +1025,26 @@
       <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="9"/>
+      <c r="J9" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K9" s="9"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="22"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M9" s="22"/>
+      <c r="N9" s="25"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -1039,24 +1053,26 @@
       <c r="E10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="13"/>
+      <c r="J10" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="22"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M10" s="22"/>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1065,24 +1081,26 @@
       <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="13"/>
+      <c r="J11" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="22"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M11" s="22"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -1091,24 +1109,26 @@
       <c r="E12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="13"/>
+      <c r="J12" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="22"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M12" s="22"/>
+      <c r="N12" s="25"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -1117,24 +1137,26 @@
       <c r="E13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="13"/>
+      <c r="J13" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K13" s="13"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="22"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M13" s="22"/>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -1143,24 +1165,26 @@
       <c r="E14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="14"/>
+      <c r="J14" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K14" s="14"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="22"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M14" s="22"/>
+      <c r="N14" s="25"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -1169,24 +1193,26 @@
       <c r="E15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="13"/>
+      <c r="J15" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="22"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="M15" s="22"/>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -1195,24 +1221,26 @@
       <c r="E16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="13"/>
+      <c r="J16" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="22"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M16" s="22"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -1221,24 +1249,26 @@
       <c r="E17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="13"/>
+      <c r="J17" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="22"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M17" s="22"/>
+      <c r="N17" s="25"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -1247,24 +1277,26 @@
       <c r="E18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="13"/>
+      <c r="J18" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="22"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M18" s="22"/>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -1273,24 +1305,26 @@
       <c r="E19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="13"/>
+      <c r="J19" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="22"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M19" s="22"/>
+      <c r="N19" s="25"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -1299,24 +1333,26 @@
       <c r="E20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="13"/>
+      <c r="J20" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="22"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M20" s="22"/>
+      <c r="N20" s="25"/>
+    </row>
+    <row r="21" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -1325,24 +1361,26 @@
       <c r="E21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="13"/>
+      <c r="J21" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="22"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M21" s="22"/>
+      <c r="N21" s="25"/>
+    </row>
+    <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -1351,24 +1389,26 @@
       <c r="E22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="25"/>
-      <c r="J22" s="13"/>
+      <c r="J22" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="22"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M22" s="22"/>
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -1377,24 +1417,26 @@
       <c r="E23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="13"/>
+      <c r="J23" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="22"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M23" s="22"/>
+      <c r="N23" s="25"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -1403,24 +1445,26 @@
       <c r="E24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="13"/>
+      <c r="J24" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="22"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M24" s="22"/>
+      <c r="N24" s="25"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -1429,24 +1473,26 @@
       <c r="E25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="13"/>
+      <c r="J25" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="22"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M25" s="22"/>
+      <c r="N25" s="25"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -1455,18 +1501,21 @@
       <c r="E26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
       <c r="I26" s="26"/>
-      <c r="J26" s="9"/>
+      <c r="J26" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="N4:N26"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="M4:M26"/>
@@ -1474,7 +1523,6 @@
     <mergeCell ref="F4:F26"/>
     <mergeCell ref="G4:G26"/>
     <mergeCell ref="H4:H26"/>
-    <mergeCell ref="N4:N26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_09_02_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_09_02_CO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="67">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>16/04/15 12:23 p.m.</t>
+  </si>
+  <si>
+    <t>27/04/15 1:40 p.m.</t>
   </si>
 </sst>
 </file>
@@ -488,6 +491,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -504,15 +516,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -801,7 +804,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J4" sqref="J4"/>
+      <selection pane="topRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,40 +877,40 @@
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="17" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
-      <c r="F4" s="24">
+      <c r="F4" s="18">
         <v>42103.638888888891</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="18">
         <v>42103.649305555555</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="18">
         <v>42103.651388888888</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="18">
         <v>42104.390277777777</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="18"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="17" t="s">
         <v>64</v>
       </c>
@@ -915,15 +918,15 @@
       <c r="E5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="19"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -941,17 +944,17 @@
       <c r="E6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="19"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -969,17 +972,17 @@
       <c r="E7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
       <c r="J7" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="19"/>
     </row>
     <row r="8" spans="1:16" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -997,17 +1000,17 @@
       <c r="E8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="19"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -1025,17 +1028,17 @@
       <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="19"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -1053,17 +1056,17 @@
       <c r="E10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="19"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -1081,17 +1084,17 @@
       <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="19"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
@@ -1109,17 +1112,17 @@
       <c r="E12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="19"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1137,17 +1140,17 @@
       <c r="E13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K13" s="13"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="19"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
@@ -1165,17 +1168,17 @@
       <c r="E14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="19"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -1193,17 +1196,17 @@
       <c r="E15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="19"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -1221,17 +1224,17 @@
       <c r="E16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="19"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -1249,17 +1252,17 @@
       <c r="E17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="19"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
@@ -1277,17 +1280,17 @@
       <c r="E18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="19"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
@@ -1305,17 +1308,17 @@
       <c r="E19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="19"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
@@ -1333,17 +1336,17 @@
       <c r="E20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="19"/>
     </row>
     <row r="21" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
@@ -1361,17 +1364,17 @@
       <c r="E21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="19"/>
     </row>
     <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
@@ -1389,17 +1392,17 @@
       <c r="E22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
@@ -1417,17 +1420,17 @@
       <c r="E23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="19"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
@@ -1445,17 +1448,17 @@
       <c r="E24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="19"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
@@ -1473,17 +1476,17 @@
       <c r="E25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="19"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
@@ -1501,17 +1504,19 @@
       <c r="E26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K26" s="9"/>
+      <c r="K26" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="L26" s="9"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/seguimiento/ProduccionDigital/SegDigital_CS_09_02_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_09_02_CO.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glorita\Documents\GitHub\CienciasSociales\seguimiento\ProduccionDigital\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="20730" windowHeight="9540"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="26100" windowHeight="12400"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="67">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -433,12 +428,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -476,12 +485,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -518,10 +521,27 @@
     <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="17">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -792,7 +812,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -804,33 +824,33 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K27" sqref="K27"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4:I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
     <col min="6" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.85546875" style="1"/>
+    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="18">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="15"/>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="C1" s="13"/>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="22">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -876,66 +896,80 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="15">
+      <c r="A4" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="18">
+      <c r="B4" s="20"/>
+      <c r="C4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="16">
         <v>42103.638888888891</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="16">
         <v>42103.649305555555</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="16">
         <v>42103.651388888888</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="16">
         <v>42104.390277777777</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="18"/>
+      <c r="J4" s="25">
+        <v>42105.515972222223</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="25">
+        <v>42105.515972222223</v>
+      </c>
+      <c r="M4" s="22">
+        <v>42174.104166666664</v>
+      </c>
+      <c r="N4" s="16"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:16" ht="15">
+      <c r="A5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="19"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="25">
+        <v>42143.724305555559</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="25">
+        <v>42143.724305555559</v>
+      </c>
+      <c r="M5" s="23"/>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -944,26 +978,30 @@
       <c r="E6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="19"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="25">
+        <v>42173.557638888888</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -972,26 +1010,30 @@
       <c r="E7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="19"/>
-    </row>
-    <row r="8" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+      <c r="K7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="25">
+        <v>42173.557638888888</v>
+      </c>
+      <c r="M7" s="23"/>
+      <c r="N7" s="17"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -1000,26 +1042,30 @@
       <c r="E8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="19"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="25">
+        <v>42173.557638888888</v>
+      </c>
+      <c r="M8" s="23"/>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1028,26 +1074,30 @@
       <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="19"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="25">
+        <v>42173.557638888888</v>
+      </c>
+      <c r="M9" s="23"/>
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -1056,26 +1106,30 @@
       <c r="E10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="19"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="25">
+        <v>42173.557638888888</v>
+      </c>
+      <c r="M10" s="23"/>
+      <c r="N10" s="17"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1084,26 +1138,30 @@
       <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="19"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="25">
+        <v>42173.557638888888</v>
+      </c>
+      <c r="M11" s="23"/>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -1112,26 +1170,30 @@
       <c r="E12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="19"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="25">
+        <v>42173.557638888888</v>
+      </c>
+      <c r="M12" s="23"/>
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -1140,26 +1202,30 @@
       <c r="E13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="19"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="25">
+        <v>42173.557638888888</v>
+      </c>
+      <c r="M13" s="23"/>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -1168,26 +1234,30 @@
       <c r="E14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="19"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="25">
+        <v>42173.557638888888</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -1196,26 +1266,30 @@
       <c r="E15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="19"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="25">
+        <v>42173.557638888888</v>
+      </c>
+      <c r="M15" s="23"/>
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -1224,26 +1298,30 @@
       <c r="E16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="19"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="25">
+        <v>42173.557638888888</v>
+      </c>
+      <c r="M16" s="23"/>
+      <c r="N16" s="17"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -1252,26 +1330,30 @@
       <c r="E17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="19"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="25">
+        <v>42173.557638888888</v>
+      </c>
+      <c r="M17" s="23"/>
+      <c r="N17" s="17"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -1280,26 +1362,30 @@
       <c r="E18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="19"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="25">
+        <v>42173.557638888888</v>
+      </c>
+      <c r="M18" s="23"/>
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -1308,26 +1394,30 @@
       <c r="E19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="19"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="25">
+        <v>42173.557638888888</v>
+      </c>
+      <c r="M19" s="23"/>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -1336,26 +1426,30 @@
       <c r="E20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="19"/>
-    </row>
-    <row r="21" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="K20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="25">
+        <v>42173.557638888888</v>
+      </c>
+      <c r="M20" s="23"/>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -1364,26 +1458,30 @@
       <c r="E21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="19"/>
-    </row>
-    <row r="22" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="K21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="25">
+        <v>42173.557638888888</v>
+      </c>
+      <c r="M21" s="23"/>
+      <c r="N21" s="17"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -1392,26 +1490,30 @@
       <c r="E22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="19"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="25">
+        <v>42173.557638888888</v>
+      </c>
+      <c r="M22" s="23"/>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -1420,26 +1522,30 @@
       <c r="E23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="19"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" s="25">
+        <v>42173.557638888888</v>
+      </c>
+      <c r="M23" s="23"/>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -1448,26 +1554,30 @@
       <c r="E24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="19"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="25">
+        <v>42173.557638888888</v>
+      </c>
+      <c r="M24" s="23"/>
+      <c r="N24" s="17"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -1476,26 +1586,30 @@
       <c r="E25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="19"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="25">
+        <v>42173.557638888888</v>
+      </c>
+      <c r="M25" s="23"/>
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -1504,19 +1618,21 @@
       <c r="E26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
       <c r="J26" s="9" t="s">
         <v>65</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="20"/>
+      <c r="L26" s="25">
+        <v>42173.557638888888</v>
+      </c>
+      <c r="M26" s="24"/>
+      <c r="N26" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1530,7 +1646,7 @@
     <mergeCell ref="H4:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
